--- a/csv/model/market share limits/formula_market share limits_SK.xlsx
+++ b/csv/model/market share limits/formula_market share limits_SK.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CIMS\dev\cims-models\csv\model\market share limits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECFD4E57-E9CD-434C-AF45-3AE74311C672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A213156-3F95-4D00-80E4-E37E913B56CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A3CB3BE-B8D8-495A-B033-9C6CD9F69FDB}"/>
+    <workbookView xWindow="31935" yWindow="1335" windowWidth="17280" windowHeight="8475" xr2:uid="{8E078C2D-31DF-499B-B87D-9E08C96C291D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029" iterate="1" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="232">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>CIMS.CAN.SK.Petroleum Refining.Methane Blend</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.SK.Iron and Steel.Methane Blend</t>
   </si>
   <si>
     <t>CIMS.CAN.SK.Chemical Products.Methane Blend</t>
@@ -1099,21 +1102,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6168BAF3-4760-492A-81E3-71D33E91891C}">
-  <dimension ref="A1:X213"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB16F75-202E-4226-BB67-A0B682A97597}">
+  <dimension ref="A1:X215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X213"/>
+      <selection sqref="A1:X215"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1541,7 +1544,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1836,7 +1839,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1954,7 +1957,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2131,7 +2134,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2190,7 +2193,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2249,7 +2252,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -2308,7 +2311,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2367,7 +2370,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -2426,7 +2429,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -2544,7 +2547,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>60</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2721,7 +2724,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -2780,7 +2783,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2839,7 +2842,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -3016,7 +3019,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -3193,7 +3196,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -3311,7 +3314,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>79</v>
       </c>
@@ -3370,7 +3373,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -3488,7 +3491,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -3547,7 +3550,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -3606,7 +3609,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -3665,7 +3668,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>81</v>
       </c>
@@ -3724,7 +3727,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -3842,7 +3845,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -3901,7 +3904,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -3960,7 +3963,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -4019,7 +4022,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -4137,7 +4140,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -4196,7 +4199,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -4314,7 +4317,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -4373,7 +4376,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -4491,7 +4494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -4550,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -4609,7 +4612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -4668,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -4727,7 +4730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>98</v>
       </c>
@@ -4845,7 +4848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>102</v>
       </c>
@@ -4904,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>102</v>
       </c>
@@ -4963,7 +4966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>105</v>
       </c>
@@ -5022,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>108</v>
       </c>
@@ -5081,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>111</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>111</v>
       </c>
@@ -5258,7 +5261,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>111</v>
       </c>
@@ -5317,7 +5320,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>111</v>
       </c>
@@ -5376,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>111</v>
       </c>
@@ -5435,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>115</v>
       </c>
@@ -5494,7 +5497,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -5553,7 +5556,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>115</v>
       </c>
@@ -5671,7 +5674,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>116</v>
       </c>
@@ -5730,7 +5733,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>116</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -5848,7 +5851,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -5907,7 +5910,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>117</v>
       </c>
@@ -5966,7 +5969,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -6025,7 +6028,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -6143,7 +6146,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -6202,7 +6205,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -6261,7 +6264,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -6320,7 +6323,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -6379,7 +6382,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -6438,7 +6441,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>125</v>
       </c>
@@ -6497,7 +6500,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -6556,7 +6559,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -6615,7 +6618,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>127</v>
       </c>
@@ -6674,7 +6677,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -6733,7 +6736,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>129</v>
       </c>
@@ -6792,7 +6795,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>131</v>
       </c>
@@ -6851,7 +6854,7 @@
         <v>0.27422680412371098</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>131</v>
       </c>
@@ -6910,7 +6913,7 @@
         <v>0.27371134020618498</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>131</v>
       </c>
@@ -6969,7 +6972,7 @@
         <v>0.12603092783505199</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>131</v>
       </c>
@@ -7028,7 +7031,7 @@
         <v>0.12603092783505199</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>138</v>
       </c>
@@ -7087,7 +7090,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>141</v>
       </c>
@@ -7146,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>141</v>
       </c>
@@ -7205,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>141</v>
       </c>
@@ -7264,7 +7267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>143</v>
       </c>
@@ -7323,7 +7326,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>143</v>
       </c>
@@ -7382,7 +7385,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>144</v>
       </c>
@@ -7441,7 +7444,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>144</v>
       </c>
@@ -7500,7 +7503,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>144</v>
       </c>
@@ -7559,7 +7562,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>146</v>
       </c>
@@ -7618,7 +7621,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>146</v>
       </c>
@@ -7677,7 +7680,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>146</v>
       </c>
@@ -7736,7 +7739,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -7795,7 +7798,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>147</v>
       </c>
@@ -7854,7 +7857,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>147</v>
       </c>
@@ -7913,7 +7916,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>148</v>
       </c>
@@ -7972,7 +7975,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>149</v>
       </c>
@@ -8031,7 +8034,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>150</v>
       </c>
@@ -8090,7 +8093,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>151</v>
       </c>
@@ -8149,7 +8152,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>152</v>
       </c>
@@ -8208,7 +8211,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>153</v>
       </c>
@@ -8267,7 +8270,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>154</v>
       </c>
@@ -8326,7 +8329,7 @@
         <v>0.14545</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>154</v>
       </c>
@@ -8385,7 +8388,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>154</v>
       </c>
@@ -8444,7 +8447,7 @@
         <v>0.24726999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>154</v>
       </c>
@@ -8503,7 +8506,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>154</v>
       </c>
@@ -8562,7 +8565,7 @@
         <v>6.182E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>154</v>
       </c>
@@ -8621,7 +8624,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>156</v>
       </c>
@@ -8680,7 +8683,7 @@
         <v>0.14545</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>156</v>
       </c>
@@ -8739,7 +8742,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>156</v>
       </c>
@@ -8798,7 +8801,7 @@
         <v>0.24726999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>156</v>
       </c>
@@ -8857,7 +8860,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>156</v>
       </c>
@@ -8916,7 +8919,7 @@
         <v>6.182E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>156</v>
       </c>
@@ -8975,7 +8978,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>157</v>
       </c>
@@ -9034,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>161</v>
       </c>
@@ -9093,7 +9096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>164</v>
       </c>
@@ -9152,7 +9155,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>164</v>
       </c>
@@ -9211,7 +9214,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>164</v>
       </c>
@@ -9270,7 +9273,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>164</v>
       </c>
@@ -9329,7 +9332,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>164</v>
       </c>
@@ -9388,7 +9391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>164</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>164</v>
       </c>
@@ -9506,7 +9509,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -9565,7 +9568,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>164</v>
       </c>
@@ -9624,7 +9627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>169</v>
       </c>
@@ -9683,7 +9686,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>169</v>
       </c>
@@ -9742,7 +9745,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>170</v>
       </c>
@@ -9801,7 +9804,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>170</v>
       </c>
@@ -9860,7 +9863,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>171</v>
       </c>
@@ -9919,7 +9922,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -9978,7 +9981,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>171</v>
       </c>
@@ -10037,7 +10040,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>172</v>
       </c>
@@ -10096,7 +10099,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>172</v>
       </c>
@@ -10155,7 +10158,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>172</v>
       </c>
@@ -10214,7 +10217,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>173</v>
       </c>
@@ -10273,7 +10276,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>174</v>
       </c>
@@ -10332,7 +10335,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>175</v>
       </c>
@@ -10391,7 +10394,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>176</v>
       </c>
@@ -10450,7 +10453,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>177</v>
       </c>
@@ -10509,7 +10512,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>178</v>
       </c>
@@ -10568,7 +10571,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>179</v>
       </c>
@@ -10627,7 +10630,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>180</v>
       </c>
@@ -10686,7 +10689,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -10745,7 +10748,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>182</v>
       </c>
@@ -10804,7 +10807,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>182</v>
       </c>
@@ -10863,7 +10866,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -10922,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>186</v>
       </c>
@@ -10981,7 +10984,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>189</v>
       </c>
@@ -11040,7 +11043,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>189</v>
       </c>
@@ -11099,7 +11102,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>189</v>
       </c>
@@ -11158,7 +11161,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>194</v>
       </c>
@@ -11227,7 +11230,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>198</v>
       </c>
@@ -11296,7 +11299,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>199</v>
       </c>
@@ -11365,7 +11368,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>200</v>
       </c>
@@ -11434,7 +11437,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>201</v>
       </c>
@@ -11503,7 +11506,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>202</v>
       </c>
@@ -11572,7 +11575,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>203</v>
       </c>
@@ -11641,7 +11644,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>204</v>
       </c>
@@ -11710,7 +11713,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>205</v>
       </c>
@@ -11779,7 +11782,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>206</v>
       </c>
@@ -11848,7 +11851,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>207</v>
       </c>
@@ -11917,7 +11920,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>208</v>
       </c>
@@ -11986,7 +11989,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>194</v>
       </c>
@@ -12055,7 +12058,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>198</v>
       </c>
@@ -12124,7 +12127,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>199</v>
       </c>
@@ -12193,7 +12196,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>200</v>
       </c>
@@ -12262,7 +12265,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>201</v>
       </c>
@@ -12331,7 +12334,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>202</v>
       </c>
@@ -12400,7 +12403,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>203</v>
       </c>
@@ -12469,7 +12472,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>204</v>
       </c>
@@ -12538,7 +12541,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>205</v>
       </c>
@@ -12607,7 +12610,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>206</v>
       </c>
@@ -12676,7 +12679,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>207</v>
       </c>
@@ -12745,7 +12748,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>208</v>
       </c>
@@ -12814,7 +12817,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>209</v>
       </c>
@@ -12886,7 +12889,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>214</v>
       </c>
@@ -12945,7 +12948,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>218</v>
       </c>
@@ -13007,7 +13010,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>222</v>
       </c>
@@ -13069,7 +13072,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>223</v>
       </c>
@@ -13131,7 +13134,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>224</v>
       </c>
@@ -13193,7 +13196,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>225</v>
       </c>
@@ -13204,7 +13207,7 @@
         <v>15</v>
       </c>
       <c r="D202" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="E202" t="s">
         <v>219</v>
@@ -13255,7 +13258,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>226</v>
       </c>
@@ -13266,7 +13269,7 @@
         <v>15</v>
       </c>
       <c r="D203" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E203" t="s">
         <v>219</v>
@@ -13317,7 +13320,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>227</v>
       </c>
@@ -13328,7 +13331,7 @@
         <v>15</v>
       </c>
       <c r="D204" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E204" t="s">
         <v>219</v>
@@ -13379,7 +13382,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>228</v>
       </c>
@@ -13390,7 +13393,7 @@
         <v>15</v>
       </c>
       <c r="D205" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="E205" t="s">
         <v>219</v>
@@ -13441,9 +13444,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -13452,13 +13455,13 @@
         <v>15</v>
       </c>
       <c r="D206" t="s">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="E206" t="s">
         <v>219</v>
       </c>
       <c r="F206" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="G206" t="s">
         <v>19</v>
@@ -13467,45 +13470,45 @@
         <v>20</v>
       </c>
       <c r="M206">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="N206">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="O206">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="P206">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="Q206">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="R206">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="S206">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="T206">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="U206">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="V206">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="W206">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="X206" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B207" t="s">
         <v>5</v>
@@ -13514,13 +13517,13 @@
         <v>15</v>
       </c>
       <c r="D207" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E207" t="s">
         <v>219</v>
       </c>
       <c r="F207" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G207" t="s">
         <v>19</v>
@@ -13565,9 +13568,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -13576,13 +13579,13 @@
         <v>15</v>
       </c>
       <c r="D208" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E208" t="s">
         <v>219</v>
       </c>
       <c r="F208" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G208" t="s">
         <v>19</v>
@@ -13627,9 +13630,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
@@ -13638,13 +13641,13 @@
         <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="E209" t="s">
         <v>219</v>
       </c>
       <c r="F209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G209" t="s">
         <v>19</v>
@@ -13689,9 +13692,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B210" t="s">
         <v>5</v>
@@ -13700,13 +13703,13 @@
         <v>15</v>
       </c>
       <c r="D210" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="E210" t="s">
         <v>219</v>
       </c>
       <c r="F210" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G210" t="s">
         <v>19</v>
@@ -13751,9 +13754,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B211" t="s">
         <v>5</v>
@@ -13762,13 +13765,13 @@
         <v>15</v>
       </c>
       <c r="D211" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="E211" t="s">
         <v>219</v>
       </c>
       <c r="F211" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G211" t="s">
         <v>19</v>
@@ -13813,9 +13816,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B212" t="s">
         <v>5</v>
@@ -13824,13 +13827,13 @@
         <v>15</v>
       </c>
       <c r="D212" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="E212" t="s">
         <v>219</v>
       </c>
       <c r="F212" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G212" t="s">
         <v>19</v>
@@ -13875,9 +13878,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -13886,13 +13889,13 @@
         <v>15</v>
       </c>
       <c r="D213" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="E213" t="s">
         <v>219</v>
       </c>
       <c r="F213" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G213" t="s">
         <v>19</v>
@@ -13934,6 +13937,130 @@
         <v>0.03</v>
       </c>
       <c r="X213" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>228</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214" t="s">
+        <v>195</v>
+      </c>
+      <c r="E214" t="s">
+        <v>219</v>
+      </c>
+      <c r="F214" t="s">
+        <v>231</v>
+      </c>
+      <c r="G214" t="s">
+        <v>19</v>
+      </c>
+      <c r="L214" t="s">
+        <v>20</v>
+      </c>
+      <c r="M214">
+        <v>0.03</v>
+      </c>
+      <c r="N214">
+        <v>0.03</v>
+      </c>
+      <c r="O214">
+        <v>0.03</v>
+      </c>
+      <c r="P214">
+        <v>0.03</v>
+      </c>
+      <c r="Q214">
+        <v>0.03</v>
+      </c>
+      <c r="R214">
+        <v>0.03</v>
+      </c>
+      <c r="S214">
+        <v>0.03</v>
+      </c>
+      <c r="T214">
+        <v>0.03</v>
+      </c>
+      <c r="U214">
+        <v>0.03</v>
+      </c>
+      <c r="V214">
+        <v>0.03</v>
+      </c>
+      <c r="W214">
+        <v>0.03</v>
+      </c>
+      <c r="X214" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>229</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>15</v>
+      </c>
+      <c r="D215" t="s">
+        <v>230</v>
+      </c>
+      <c r="E215" t="s">
+        <v>219</v>
+      </c>
+      <c r="F215" t="s">
+        <v>231</v>
+      </c>
+      <c r="G215" t="s">
+        <v>19</v>
+      </c>
+      <c r="L215" t="s">
+        <v>20</v>
+      </c>
+      <c r="M215">
+        <v>0.03</v>
+      </c>
+      <c r="N215">
+        <v>0.03</v>
+      </c>
+      <c r="O215">
+        <v>0.03</v>
+      </c>
+      <c r="P215">
+        <v>0.03</v>
+      </c>
+      <c r="Q215">
+        <v>0.03</v>
+      </c>
+      <c r="R215">
+        <v>0.03</v>
+      </c>
+      <c r="S215">
+        <v>0.03</v>
+      </c>
+      <c r="T215">
+        <v>0.03</v>
+      </c>
+      <c r="U215">
+        <v>0.03</v>
+      </c>
+      <c r="V215">
+        <v>0.03</v>
+      </c>
+      <c r="W215">
+        <v>0.03</v>
+      </c>
+      <c r="X215" t="s">
         <v>221</v>
       </c>
     </row>
